--- a/Lab6/Zeszyt1.xlsx
+++ b/Lab6/Zeszyt1.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasia\Documents\GitHub\aa\Lab6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B4F10-AE2B-436C-84F9-F8B2CF30432B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="18195" windowHeight="11565" activeTab="2"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="LINIOWA" sheetId="2" r:id="rId2"/>
     <sheet name="pARABOL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>f</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>rpmStarter</t>
   </si>
   <si>
     <t>rpmTachometr</t>
-  </si>
-  <si>
-    <t>przeliczenie</t>
   </si>
   <si>
     <t>F</t>
@@ -38,12 +46,135 @@
   <si>
     <t>V OBROTOWA RPM</t>
   </si>
+  <si>
+    <t>Częstotliwość zadana [Hz]</t>
+  </si>
+  <si>
+    <t>Prędkość zmierzona tachometrem [obr/min]</t>
+  </si>
+  <si>
+    <t>Prędkość odczytana z tabeli [obr/min]</t>
+  </si>
+  <si>
+    <t>Różnica bezwzględna</t>
+  </si>
+  <si>
+    <t>Różnica względna</t>
+  </si>
+  <si>
+    <t>Prędkość obrotowa [obr/min]</t>
+  </si>
+  <si>
+    <t>Częstotliwość zmierzona [Hz]</t>
+  </si>
+  <si>
+    <t>Napięcie zadane [V]</t>
+  </si>
+  <si>
+    <t>Napięcie wejściowe</t>
+  </si>
+  <si>
+    <t>Prędkość obrotowa</t>
+  </si>
+  <si>
+    <t>Częstotliwość</t>
+  </si>
+  <si>
+    <t>Napięcie na silniku</t>
+  </si>
+  <si>
+    <t>Napięcie na silniku [V]</t>
+  </si>
+  <si>
+    <t>14,9</t>
+  </si>
+  <si>
+    <t>1,03</t>
+  </si>
+  <si>
+    <t>5,08</t>
+  </si>
+  <si>
+    <t>1,99</t>
+  </si>
+  <si>
+    <t>9,97</t>
+  </si>
+  <si>
+    <t>29,43</t>
+  </si>
+  <si>
+    <t>2,99</t>
+  </si>
+  <si>
+    <t>14,95</t>
+  </si>
+  <si>
+    <t>44,72</t>
+  </si>
+  <si>
+    <t>4,02</t>
+  </si>
+  <si>
+    <t>20,12</t>
+  </si>
+  <si>
+    <t>4,98</t>
+  </si>
+  <si>
+    <t>24,8</t>
+  </si>
+  <si>
+    <t>85,1</t>
+  </si>
+  <si>
+    <t>6,01</t>
+  </si>
+  <si>
+    <t>29,9</t>
+  </si>
+  <si>
+    <t>110,7</t>
+  </si>
+  <si>
+    <t>6,99</t>
+  </si>
+  <si>
+    <t>34,96</t>
+  </si>
+  <si>
+    <t>137,4</t>
+  </si>
+  <si>
+    <t>8,05</t>
+  </si>
+  <si>
+    <t>40,3</t>
+  </si>
+  <si>
+    <t>168,5</t>
+  </si>
+  <si>
+    <t>8,98</t>
+  </si>
+  <si>
+    <t>44,85</t>
+  </si>
+  <si>
+    <t>196,6</t>
+  </si>
+  <si>
+    <t>9,93</t>
+  </si>
+  <si>
+    <t>49,66</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +182,37 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -69,12 +231,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -85,8 +366,4461 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność prędkości</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> obrotowej silnika od częstotliowści prądu</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42698679994924849"/>
+          <c:y val="1.1678829431845639E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3297275824662726E-2"/>
+          <c:y val="0.11121165326475012"/>
+          <c:w val="0.83978402694880272"/>
+          <c:h val="0.76206339167460391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Prędkość zmierzona tachometrem</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>148.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>447.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>597.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>747.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>897.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2554-4BA0-B07E-53CFD247B46A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Prędkość odczytana z tabeli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2554-4BA0-B07E-53CFD247B46A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="312542448"/>
+        <c:axId val="312541464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="312542448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Częstotliwość</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47757054231741897"/>
+              <c:y val="0.92640866109347408"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312541464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="312541464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1510"/>
+          <c:min val="145"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Prędkość obrotwa [obr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312542448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63200137108876009"/>
+          <c:y val="0.66983903216528951"/>
+          <c:w val="0.26169939277507964"/>
+          <c:h val="9.8540813025849078E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> prędkości obrotowej silnika od częstotliwości napięcia</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12965561006085349"/>
+          <c:y val="3.3542976939203356E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Prędkość obrotowa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LINIOWA!$G$32:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>208.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LINIOWA!$K$34:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>208.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76A2-4A5D-8472-E7D86DB322B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="564641576"/>
+        <c:axId val="564639608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="564641576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="235"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Napięcie na silniku</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38865676369015989"/>
+              <c:y val="0.90437204958411688"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564639608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="564639608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Prędkość obrotowa [obr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564641576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> prędkości obrotowej silnika od częstotliwości napięcia</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11737310626728031"/>
+          <c:y val="3.7610787413403166E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>pARABOL!$I$32:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pARABOL!$I$31:$R$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>160.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>309.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>446.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>745.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B62E-4DBA-AC06-E31151B66A05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="564641576"/>
+        <c:axId val="564639608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="564641576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Napięcie na silniku</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564639608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="564639608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Prędkość obrotowa [obr/min]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564641576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>pARABOL!$K$39:$K$50</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Napięcie wejściowe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1,03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1,99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2,99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4,02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4,98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6,01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6,99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8,05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8,98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9,93</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>pARABOL!$L$40:$L$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1342</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0446-4D4A-8228-4ED1D36321D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="445324344"/>
+        <c:axId val="445323360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="445324344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445323360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445323360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445324344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>55034</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>503766</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2014B97E-67DE-42BB-B6C1-CDDC7B3C3550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>336549</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>287866</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156634</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316E85B4-7DC3-49FD-AF95-2DBC57C4444C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>478368</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>300568</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A4A5CC-618B-4158-8CCC-72C502F57599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44449</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>35983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>112182</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087984A2-82E2-4967-9AA9-2318771C5ABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -132,7 +4866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,9 +4899,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,6 +4951,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -375,178 +5143,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.76171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.29296875" customWidth="1"/>
+    <col min="3" max="3" width="9.8203125" customWidth="1"/>
+    <col min="4" max="4" width="10.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>148.69999999999999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>150</v>
       </c>
-      <c r="D2">
-        <f>A2*30</f>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>298.2</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>447.9</v>
+      </c>
+      <c r="D4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>597.4</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>747.4</v>
+      </c>
+      <c r="D6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>897.1</v>
+      </c>
+      <c r="D7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>1046</v>
+      </c>
+      <c r="D8">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>1196</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>1346</v>
+      </c>
+      <c r="D10">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>1496</v>
+      </c>
+      <c r="D11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>35</v>
+      </c>
+      <c r="I15" s="2">
+        <v>40</v>
+      </c>
+      <c r="J15" s="2">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>298.2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>447.9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>597.4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>747.4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>897.1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1046</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1196</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1346</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>298.2</v>
-      </c>
-      <c r="C3">
+      <c r="C17" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>447.9</v>
-      </c>
-      <c r="C4">
+      <c r="D17" s="1">
         <v>450</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>597.4</v>
-      </c>
-      <c r="C5">
+      <c r="E17" s="1">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>747.4</v>
-      </c>
-      <c r="C6">
+      <c r="F17" s="1">
         <v>750</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>897.1</v>
-      </c>
-      <c r="C7">
+      <c r="G17" s="1">
         <v>900</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>1046</v>
-      </c>
-      <c r="C8">
+      <c r="H17" s="1">
         <v>1050</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>40</v>
-      </c>
-      <c r="B9">
-        <v>1196</v>
-      </c>
-      <c r="C9">
+      <c r="I17" s="1">
         <v>1200</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>1346</v>
-      </c>
-      <c r="C10">
+      <c r="J17" s="1">
         <v>1350</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>1496</v>
-      </c>
-      <c r="C11">
+      <c r="K17" s="1">
         <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B17-B16</f>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:K18" si="0">C17-C16</f>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B18/B17</f>
+        <v>8.6666666666667426E-3</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:K19" si="1">C18/C17</f>
+        <v>6.0000000000000383E-3</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6666666666667174E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>4.3333333333333713E-3</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4666666666666969E-3</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2222222222221971E-3</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>3.8095238095238095E-3</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9629629629629628E-3</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666666E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5859375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1.036</v>
       </c>
@@ -557,7 +5514,7 @@
         <v>152.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2.0230000000000001</v>
       </c>
@@ -567,8 +5524,41 @@
       <c r="C3">
         <v>303.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.036</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3.03</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="O3" s="2">
+        <v>6.0309999999999997</v>
+      </c>
+      <c r="P3" s="2">
+        <v>7.0279999999999996</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="R3" s="2">
+        <v>9.0220000000000002</v>
+      </c>
+      <c r="S3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3.03</v>
       </c>
@@ -578,8 +5568,41 @@
       <c r="C4">
         <v>452.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.0910000000000002</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>15.15</v>
+      </c>
+      <c r="M4" s="1">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>24.728000000000002</v>
+      </c>
+      <c r="O4" s="1">
+        <v>30.154</v>
+      </c>
+      <c r="P4" s="1">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="R4" s="1">
+        <v>45.08</v>
+      </c>
+      <c r="S4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3.98</v>
       </c>
@@ -589,8 +5612,41 @@
       <c r="C5">
         <v>595.20000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>152.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>303.2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>452.8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>595.20000000000005</v>
+      </c>
+      <c r="N5" s="1">
+        <v>740.1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>901.8</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1051</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1349</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4.9560000000000004</v>
       </c>
@@ -601,7 +5657,7 @@
         <v>740.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6.0309999999999997</v>
       </c>
@@ -612,7 +5668,7 @@
         <v>901.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7.0279999999999996</v>
       </c>
@@ -623,7 +5679,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8.02</v>
       </c>
@@ -634,7 +5690,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9.0220000000000002</v>
       </c>
@@ -645,7 +5701,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -656,53 +5712,360 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.5">
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+    </row>
+    <row r="30" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+    </row>
+    <row r="31" spans="4:20" ht="47.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="15">
+        <v>1.036</v>
+      </c>
+      <c r="L31" s="15">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="M31" s="15">
+        <v>3.03</v>
+      </c>
+      <c r="N31" s="15">
+        <v>3.98</v>
+      </c>
+      <c r="O31" s="15">
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="P31" s="15">
+        <v>6.0309999999999997</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>7.0279999999999996</v>
+      </c>
+      <c r="R31" s="15">
+        <v>8.02</v>
+      </c>
+      <c r="S31" s="15">
+        <v>9.0220000000000002</v>
+      </c>
+      <c r="T31" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>14.9</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="1">
+        <v>152.5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>303.2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>452.8</v>
+      </c>
+      <c r="N32" s="1">
+        <v>595.20000000000005</v>
+      </c>
+      <c r="O32" s="1">
+        <v>740.1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>901.8</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1051</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1200</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1349</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="33" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="7">
+        <v>1.036</v>
+      </c>
+      <c r="E33" s="8">
+        <v>154</v>
+      </c>
+      <c r="F33" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="G33" s="8">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="J33" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="K33" s="16">
+        <v>5.0910000000000002</v>
+      </c>
+      <c r="L33" s="16">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="M33" s="16">
+        <v>15.15</v>
+      </c>
+      <c r="N33" s="16">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="O33" s="16">
+        <v>24.728000000000002</v>
+      </c>
+      <c r="P33" s="16">
+        <v>30.154</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="R33" s="16">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="S33" s="16">
+        <v>45.08</v>
+      </c>
+      <c r="T33" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="7">
+        <v>1.994</v>
+      </c>
+      <c r="E34" s="8">
+        <v>298</v>
+      </c>
+      <c r="F34" s="8">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G34" s="8">
+        <v>54.1</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="17">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="L34" s="17">
+        <v>55.2</v>
+      </c>
+      <c r="M34" s="17">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="N34" s="17">
+        <v>96.6</v>
+      </c>
+      <c r="O34" s="17">
+        <v>118.4</v>
+      </c>
+      <c r="P34" s="17">
+        <v>141.6</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="R34" s="17">
+        <v>186.1</v>
+      </c>
+      <c r="S34" s="17">
+        <v>208.4</v>
+      </c>
+      <c r="T34" s="17">
+        <v>229.2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="7">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="E35" s="8">
+        <v>446</v>
+      </c>
+      <c r="F35" s="8">
+        <v>14.94</v>
+      </c>
+      <c r="G35" s="8">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="36" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="7">
+        <v>4.0369999999999999</v>
+      </c>
+      <c r="E36" s="8">
+        <v>602</v>
+      </c>
+      <c r="F36" s="8">
+        <v>20.14</v>
+      </c>
+      <c r="G36" s="8">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="37" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="7">
+        <v>5.0339999999999998</v>
+      </c>
+      <c r="E37" s="8">
+        <v>752</v>
+      </c>
+      <c r="F37" s="8">
+        <v>25.17</v>
+      </c>
+      <c r="G37" s="8">
+        <v>119.4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" s="7">
+        <v>6.0220000000000002</v>
+      </c>
+      <c r="E38" s="8">
+        <v>901</v>
+      </c>
+      <c r="F38" s="8">
+        <v>30.15</v>
+      </c>
+      <c r="G38" s="8">
+        <v>141.69999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="7">
+        <v>7.0179999999999998</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1050</v>
+      </c>
+      <c r="F39" s="8">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="G39" s="8">
+        <v>163.9</v>
+      </c>
+    </row>
+    <row r="40" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="7">
+        <v>8.0250000000000004</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1199</v>
+      </c>
+      <c r="F40" s="8">
+        <v>40.08</v>
+      </c>
+      <c r="G40" s="8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="7">
+        <v>9.0120000000000005</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1349</v>
+      </c>
+      <c r="F41" s="8">
+        <v>45.08</v>
+      </c>
+      <c r="G41" s="8">
+        <v>208.3</v>
+      </c>
+    </row>
+    <row r="42" spans="4:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="7">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1490</v>
+      </c>
+      <c r="F42" s="8">
+        <v>49.8</v>
+      </c>
+      <c r="G42" s="8">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="G37" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1.0649999999999999</v>
       </c>
@@ -712,8 +6075,41 @@
       <c r="C2">
         <v>160.19999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.121</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3.9489999999999998</v>
+      </c>
+      <c r="O2" s="2">
+        <v>5.03</v>
+      </c>
+      <c r="P2" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>7.08</v>
+      </c>
+      <c r="R2" s="2">
+        <v>8.0440000000000005</v>
+      </c>
+      <c r="S2" s="2">
+        <v>8.93</v>
+      </c>
+      <c r="T2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2.121</v>
       </c>
@@ -723,8 +6119,41 @@
       <c r="C3">
         <v>309.60000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5.3739999999999997</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="M3" s="1">
+        <v>14.952999999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="O3" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="P3" s="1">
+        <v>30.14</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>35.31</v>
+      </c>
+      <c r="R3" s="1">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="S3" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="T3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2.98</v>
       </c>
@@ -734,8 +6163,41 @@
       <c r="C4">
         <v>446.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>446.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>590.79999999999995</v>
+      </c>
+      <c r="O4" s="1">
+        <v>745.1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>901.5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1057</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1202</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1338</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3.9489999999999998</v>
       </c>
@@ -746,7 +6208,7 @@
         <v>590.79999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5.03</v>
       </c>
@@ -757,7 +6219,7 @@
         <v>745.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6.03</v>
       </c>
@@ -768,7 +6230,7 @@
         <v>901.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7.08</v>
       </c>
@@ -779,7 +6241,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8.0440000000000005</v>
       </c>
@@ -790,7 +6252,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8.93</v>
       </c>
@@ -801,7 +6263,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -812,7 +6274,487 @@
         <v>1496</v>
       </c>
     </row>
+    <row r="12" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="1:22" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S14" s="11">
+        <v>0</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0</v>
+      </c>
+      <c r="U14" s="12">
+        <v>0</v>
+      </c>
+      <c r="V14" s="12">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S15" s="11">
+        <v>1.03</v>
+      </c>
+      <c r="T15" s="12">
+        <v>150</v>
+      </c>
+      <c r="U15" s="12">
+        <v>5.08</v>
+      </c>
+      <c r="V15" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S16" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="T16" s="12">
+        <v>298</v>
+      </c>
+      <c r="U16" s="12">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="V16" s="12">
+        <v>29.43</v>
+      </c>
+    </row>
+    <row r="17" spans="8:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S17" s="11">
+        <v>2.99</v>
+      </c>
+      <c r="T17" s="12">
+        <v>447</v>
+      </c>
+      <c r="U17" s="12">
+        <v>14.95</v>
+      </c>
+      <c r="V17" s="12">
+        <v>44.72</v>
+      </c>
+    </row>
+    <row r="18" spans="8:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S18" s="11">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="T18" s="12">
+        <v>601</v>
+      </c>
+      <c r="U18" s="12">
+        <v>20.12</v>
+      </c>
+      <c r="V18" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="8:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S19" s="11">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="T19" s="12">
+        <v>742</v>
+      </c>
+      <c r="U19" s="12">
+        <v>24.8</v>
+      </c>
+      <c r="V19" s="12">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="20" spans="8:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S20" s="11">
+        <v>6.01</v>
+      </c>
+      <c r="T20" s="12">
+        <v>896</v>
+      </c>
+      <c r="U20" s="12">
+        <v>29.9</v>
+      </c>
+      <c r="V20" s="12">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="21" spans="8:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S21" s="11">
+        <v>6.99</v>
+      </c>
+      <c r="T21" s="12">
+        <v>1045</v>
+      </c>
+      <c r="U21" s="12">
+        <v>34.96</v>
+      </c>
+      <c r="V21" s="12">
+        <v>137.4</v>
+      </c>
+    </row>
+    <row r="22" spans="8:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S22" s="11">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="T22" s="12">
+        <v>1206</v>
+      </c>
+      <c r="U22" s="12">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="V22" s="12">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="23" spans="8:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S23" s="11">
+        <v>8.98</v>
+      </c>
+      <c r="T23" s="12">
+        <v>1342</v>
+      </c>
+      <c r="U23" s="12">
+        <v>44.85</v>
+      </c>
+      <c r="V23" s="12">
+        <v>196.6</v>
+      </c>
+    </row>
+    <row r="24" spans="8:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S24" s="11">
+        <v>9.93</v>
+      </c>
+      <c r="T24" s="12">
+        <v>1486</v>
+      </c>
+      <c r="U24" s="12">
+        <v>49.66</v>
+      </c>
+      <c r="V24" s="12">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="8:22" x14ac:dyDescent="0.5">
+      <c r="H29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1.03</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1.99</v>
+      </c>
+      <c r="K29" s="15">
+        <v>2.99</v>
+      </c>
+      <c r="L29" s="15">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="M29" s="15">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="N29" s="15">
+        <v>6.01</v>
+      </c>
+      <c r="O29" s="15">
+        <v>6.99</v>
+      </c>
+      <c r="P29" s="15">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>8.98</v>
+      </c>
+      <c r="R29" s="15">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="30" spans="8:22" x14ac:dyDescent="0.5">
+      <c r="H30" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5.3739999999999997</v>
+      </c>
+      <c r="J30" s="1">
+        <v>10.39</v>
+      </c>
+      <c r="K30" s="1">
+        <v>14.952999999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="M30" s="1">
+        <v>24.95</v>
+      </c>
+      <c r="N30" s="1">
+        <v>30.14</v>
+      </c>
+      <c r="O30" s="1">
+        <v>35.31</v>
+      </c>
+      <c r="P30" s="1">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="R30" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="8:22" x14ac:dyDescent="0.5">
+      <c r="H31" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="J31" s="1">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="K31" s="1">
+        <v>446.5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>590.79999999999995</v>
+      </c>
+      <c r="M31" s="1">
+        <v>745.1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>901.5</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1057</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1202</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1338</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="32" spans="8:22" x14ac:dyDescent="0.5">
+      <c r="H32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="17">
+        <v>20.3</v>
+      </c>
+      <c r="J32" s="17">
+        <v>29.34</v>
+      </c>
+      <c r="K32" s="17">
+        <v>44.72</v>
+      </c>
+      <c r="L32" s="17">
+        <v>63.8</v>
+      </c>
+      <c r="M32" s="17">
+        <v>85.4</v>
+      </c>
+      <c r="N32" s="17">
+        <v>110.6</v>
+      </c>
+      <c r="O32" s="17">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="P32" s="17">
+        <v>168.3</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>196.7</v>
+      </c>
+      <c r="R32" s="17">
+        <v>229.3</v>
+      </c>
+    </row>
+    <row r="38" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="39" spans="11:14" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="8">
+        <v>150</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="8">
+        <v>298</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="8">
+        <v>447</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K44" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="8">
+        <v>601</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N44" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="8">
+        <v>742</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="8">
+        <v>896</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K47" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1045</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" s="8">
+        <v>1206</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="8">
+        <v>1342</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="11:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="8">
+        <v>1486</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N50" s="8">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>